--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:16:41+00:00</t>
+    <t>2023-03-19T16:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:22:10+00:00</t>
+    <t>2023-03-20T09:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:04:21+00:00</t>
+    <t>2023-03-20T09:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T09:08:06+00:00</t>
+    <t>2023-03-20T10:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:37:48+00:00</t>
+    <t>2023-03-20T10:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:38:51+00:00</t>
+    <t>2023-03-20T10:43:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2269,7 +2269,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {null}</t>
+constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -2393,7 +2393,7 @@
  TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {f:type}</t>
   </si>
   <si>
     <t>DocumentReference.category</t>
@@ -2423,7 +2423,7 @@
 -	TRE_A03-ClasseDocument-CISIS, OID : 1.2.250.1.213.1.1.4.1
 -	TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J57-ClassCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {f:category}</t>
   </si>
   <si>
     <t>DocumentReference.subject</t>
@@ -2476,7 +2476,7 @@
 Reference contrainte à :
 - PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
 - Device,
-- Patient contrainte au profil FrPatient. {null}</t>
+- Patient contrainte au profil FrPatient. {f:author}</t>
   </si>
   <si>
     <t>DocumentReference.authenticator</t>
@@ -2499,7 +2499,7 @@
 constr-bind-authenticator:Cardinalité contrainte à [1..1]
 Référence contrainte au profil 
 - PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {null}</t>
+-  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>DocumentReference.custodian</t>
@@ -2602,7 +2602,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {null}</t>
+constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {f:securityLabel}</t>
   </si>
   <si>
     <t>DocumentReference.content</t>
@@ -2825,7 +2825,7 @@
 - TRE_A09-DICOMuidRegistry, OID : 1.2.840.10008.2.6.1
 - TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J60-FormatCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {f:content/f:format}</t>
   </si>
   <si>
     <t>DocumentReference.context</t>
@@ -2884,7 +2884,7 @@
 constr-bind-context-event:Nomenclatures utilisées :
 - CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5");
 - CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3").
-- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {null}</t>
+- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {f:context/f:event}</t>
   </si>
   <si>
     <t>DocumentReference.context.period</t>
@@ -3760,7 +3760,7 @@
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
 Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {null}</t>
+Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
   </si>
   <si>
     <t>Cet attribut représente l’acteur validant le document et prenant la responsabilité du contenu médical de celui-ci. Il peut s’agir de l’auteur du document si celui-ci est une personne et s’il endosse la responsabilité du contenu médical de ses documents. Si l’auteur est un dispositif, cet attribut doit représenter la personne responsable de l’action effectuée par le dispositif. Pour les documents d’expression personnelle du patient, cet attribut fait référence au patient.</t>
@@ -3773,7 +3773,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-rempl:Elément requis lorsque le flux envoyé correspond au remplacement d'un document {null}constr-bind-relatesTo:Cardinalité contrainte à [1..1] lorsque le flux envoyé correspond au remplacement d’un document. {null}</t>
+constr-cdr-rempl:Elément requis lorsque le flux envoyé correspond au remplacement d'un document {f:relatesTo}constr-bind-relatesTo:Cardinalité contrainte à [1..1] lorsque le flux envoyé correspond au remplacement d’un document. {f:relatesTo}</t>
   </si>
   <si>
     <t>Représente le type d'association entre deux fiches.</t>
@@ -3783,7 +3783,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-relatesToTarget:Référence contrainte au profil PDSm_ComprehensiveDocumentReference {null}</t>
+constr-bind-relatesToTarget:Référence contrainte au profil PDSm_ComprehensiveDocumentReference {f:relatesTo/f:target}</t>
   </si>
   <si>
     <t>Document référencé.</t>
@@ -3797,7 +3797,7 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 constr-bind-attachmenturl:Dans le cas de l’ajout de document, l’url fait référence à la ressource Binary (« Binary/[id] »).
-Dans le cas de la recherche, il s’agit de l’URL permettant d’accéder au document {null}</t>
+Dans le cas de la recherche, il s’agit de l’URL permettant d’accéder au document {f:content/f:attachment/f:url}</t>
   </si>
   <si>
     <t>Représente la date et l’heure de création du document</t>
@@ -3851,7 +3851,7 @@
 -	TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 (lorsque l’auteur du document est un patient ou un équipement sous sa responsabilité)
 -	TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 (lorsque l’auteur du document est un professionnel ou un équipement sous sa responsabilité)
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J61-HealthcareFacilityTypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:facilityType or f:context/f:practiceSetting}</t>
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo.id</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:43:12+00:00</t>
+    <t>2023-03-20T10:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1498,7 +1498,7 @@
 - TRE_A00-ProducteurDocNonPS, OID : 1.2.250.1.213.1.1.4.6 
 - TRE_R209-TypeActivite, OID : 1.2.250.1.213.2.2 
 - TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J59-ContentTypeCode-DMP). 
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J03-XdsContentTypeCode-CISIS peut être utilisé. {f:extension[designationType]}</t>
   </si>
   <si>
     <t>List.extension:designationType.id</t>
@@ -1590,7 +1590,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension définie par ce volet pour distinguer les lots de soumission archivés des actives. </t>
+    <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
   </si>
   <si>
     <t>List.extension:PDSm_intendedRecipient</t>
@@ -1769,7 +1769,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Référence vers la ressource Patient contained titulaire du dossier. </t>
+    <t>Référence vers la ressource Patient contained titulaire du dossier.</t>
   </si>
   <si>
     <t>The common subject (or patient) of the resources that are in the list if there is one.</t>
@@ -1837,7 +1837,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {null}</t>
+constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {f:source}</t>
   </si>
   <si>
     <t>List.source.id</t>
@@ -1864,7 +1864,7 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}constr-bind-authororg:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "source" n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].
-La ressource référencée doit être présente sous l’élément List.contained. {null}</t>
+La ressource référencée doit être présente sous l’élément List.contained. {f:source/f:extension[authorOrg]}</t>
   </si>
   <si>
     <t>List.source.extension:authorOrg.id</t>
@@ -2919,7 +2919,7 @@
 constr-bind-ProducteurDoc-simplified:L’utilisation de cette nomenclature est recommandée mais non obligatoire (prefered) :
 -	TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 (lorsque l’auteur du document est un professionnel ou un équipement sous sa responsabilité)
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J61-HealthcareFacilityTypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:practiceSetting or f:context/f:facilityType}</t>
   </si>
   <si>
     <t>DocumentReference.context.practiceSetting</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:49:37+00:00</t>
+    <t>2023-03-20T10:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:53:05+00:00</t>
+    <t>2023-03-20T10:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/correctErrors/all-profiles.xlsx
+++ b/ig/nr/correctErrors/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T10:58:46+00:00</t>
+    <t>2023-03-20T11:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
